--- a/inst/extdata/CopyOfData/ulrich4.xlsx
+++ b/inst/extdata/CopyOfData/ulrich4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Documents/woodcarb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonesb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,18 +27,412 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+  <si>
+    <t xml:space="preserve">Table 4.-Production, imports, exports. and consumption of timber products, by major product, 1950-87 </t>
+  </si>
+  <si>
+    <t>[Million cubic feet, roundwood equivalent]</t>
+  </si>
+  <si>
+    <t>Industrial roundwood used for-</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>All products</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Plywood and veneer</t>
+  </si>
+  <si>
+    <t>Pulp products</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <r>
+      <t>products</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>wood-</t>
+  </si>
+  <si>
+    <t>Fuel-</t>
+  </si>
+  <si>
+    <t>produc-</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>tion and</t>
+  </si>
+  <si>
+    <t>Log and chip exports as % of production</t>
+  </si>
+  <si>
+    <t>Pro-</t>
+  </si>
+  <si>
+    <t>Con-</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>ex-</t>
+  </si>
+  <si>
+    <t>con-</t>
+  </si>
+  <si>
+    <t>duc-</t>
+  </si>
+  <si>
+    <t>sump-</t>
+  </si>
+  <si>
+    <t>due.</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <r>
+      <t>Imports</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exports</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>consump-</t>
+  </si>
+  <si>
+    <t>ports</t>
+  </si>
+  <si>
+    <t>tion</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <r>
+      <t>1987</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Includes cooperage logs, poles and piling, fence posts, hewn ties. round mine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOTE: Data </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">may </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>not add to totals because of rounding.</t>
+    </r>
+  </si>
+  <si>
+    <t>timbers, box bolts, excelsior bolts, chemical wood, shingle bolts. and miscellaneous items.</t>
+  </si>
+  <si>
+    <t>Sources: Based on data published by the U.S. Departments of Commerce and Agriculture.</t>
+  </si>
+  <si>
+    <t>2. 1ncludes pulpwood and the pulpwood equivalent of woodpulp and paper and board.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data for 1900-49 in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The demand and price situation for forest products 1964</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, table 2 (31),</t>
+    </r>
+  </si>
+  <si>
+    <t>3.  Less than 2.5 million cubic feet.</t>
+  </si>
+  <si>
+    <t>4. Preliminary.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +443,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -54,13 +451,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,2827 +864,3855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:P13"/>
+      <selection activeCell="P9" sqref="A1:AE53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="29"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+    </row>
+    <row r="7" spans="1:31" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="12">
         <v>10800</v>
       </c>
-      <c r="B1">
+      <c r="C11" s="13">
         <v>12185</v>
       </c>
-      <c r="D1">
+      <c r="D11" s="13"/>
+      <c r="E11" s="12">
         <v>8530</v>
       </c>
-      <c r="E1">
+      <c r="F11" s="14">
         <v>1525</v>
       </c>
-      <c r="F1">
+      <c r="G11" s="14">
         <v>140</v>
       </c>
-      <c r="G1">
+      <c r="H11" s="13">
         <v>9915</v>
       </c>
-      <c r="I1">
+      <c r="I11" s="13"/>
+      <c r="J11" s="12">
         <v>5905</v>
       </c>
-      <c r="J1">
+      <c r="K11" s="14">
         <v>535</v>
       </c>
-      <c r="K1">
+      <c r="L11" s="14">
         <v>80</v>
       </c>
-      <c r="L1">
+      <c r="M11" s="13">
         <v>6360</v>
       </c>
-      <c r="N1">
+      <c r="N11" s="13"/>
+      <c r="O11" s="12">
         <v>345</v>
       </c>
-      <c r="O1">
+      <c r="P11" s="14">
         <v>5</v>
       </c>
-      <c r="P1" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q1">
+      <c r="Q11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="13">
         <v>350</v>
       </c>
-      <c r="S1">
+      <c r="S11" s="16"/>
+      <c r="T11" s="12">
         <v>1500</v>
       </c>
-      <c r="T1">
+      <c r="U11" s="14">
         <v>935</v>
       </c>
-      <c r="U1">
+      <c r="V11" s="14">
         <v>50</v>
       </c>
-      <c r="V1">
+      <c r="W11" s="13">
         <v>2385</v>
       </c>
-      <c r="X1">
+      <c r="X11" s="16"/>
+      <c r="Y11" s="14">
         <v>770</v>
       </c>
-      <c r="Y1">
+      <c r="Z11" s="14">
         <v>50</v>
       </c>
-      <c r="Z1">
+      <c r="AA11" s="14">
         <v>10</v>
       </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
+      <c r="AB11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" s="13">
         <v>2270</v>
       </c>
-      <c r="AC1">
-        <v>1.1723329425556857E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="AD11" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="AE11" s="19"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="12">
         <v>10975</v>
       </c>
-      <c r="B2">
+      <c r="C12" s="13">
         <v>12180</v>
       </c>
-      <c r="D2">
+      <c r="D12" s="13"/>
+      <c r="E12" s="12">
         <v>8745</v>
       </c>
-      <c r="E2">
+      <c r="F12" s="14">
         <v>1465</v>
       </c>
-      <c r="F2">
+      <c r="G12" s="14">
         <v>260</v>
       </c>
-      <c r="G2">
+      <c r="H12" s="13">
         <v>9950</v>
       </c>
-      <c r="I2">
+      <c r="I12" s="13"/>
+      <c r="J12" s="12">
         <v>5780</v>
       </c>
-      <c r="J2">
+      <c r="K12" s="14">
         <v>390</v>
       </c>
-      <c r="K2">
+      <c r="L12" s="14">
         <v>155</v>
       </c>
-      <c r="L2">
+      <c r="M12" s="13">
         <v>6020</v>
       </c>
-      <c r="N2">
+      <c r="N12" s="13"/>
+      <c r="O12" s="12">
         <v>390</v>
       </c>
-      <c r="O2">
+      <c r="P12" s="14">
         <v>10</v>
       </c>
-      <c r="P2" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q2">
+      <c r="Q12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="13">
         <v>400</v>
       </c>
-      <c r="S2">
+      <c r="S12" s="16"/>
+      <c r="T12" s="12">
         <v>1825</v>
       </c>
-      <c r="T2">
+      <c r="U12" s="14">
         <v>1025</v>
       </c>
-      <c r="U2">
+      <c r="V12" s="14">
         <v>90</v>
       </c>
-      <c r="V2">
+      <c r="W12" s="13">
         <v>2765</v>
       </c>
-      <c r="X2">
+      <c r="X12" s="16"/>
+      <c r="Y12" s="14">
         <v>730</v>
       </c>
-      <c r="Y2">
+      <c r="Z12" s="14">
         <v>40</v>
       </c>
-      <c r="Z2">
+      <c r="AA12" s="14">
         <v>15</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
+      <c r="AB12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC12" s="13">
         <v>2230</v>
       </c>
-      <c r="AC2">
-        <v>1.7152658662092624E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="AD12" s="18">
+        <v>2E-3</v>
+      </c>
+      <c r="AE12" s="19"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="12">
         <v>10780</v>
       </c>
-      <c r="B3">
+      <c r="C13" s="13">
         <v>11945</v>
       </c>
-      <c r="D3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="12">
         <v>8775</v>
       </c>
-      <c r="E3">
+      <c r="F13" s="14">
         <v>1375</v>
       </c>
-      <c r="F3">
+      <c r="G13" s="14">
         <v>215</v>
       </c>
-      <c r="G3">
+      <c r="H13" s="13">
         <v>9940</v>
       </c>
-      <c r="I3">
+      <c r="I13" s="13"/>
+      <c r="J13" s="12">
         <v>5820</v>
       </c>
-      <c r="J3">
+      <c r="K13" s="14">
         <v>385</v>
       </c>
-      <c r="K3">
+      <c r="L13" s="14">
         <v>115</v>
       </c>
-      <c r="L3">
+      <c r="M13" s="13">
         <v>6095</v>
       </c>
-      <c r="N3">
+      <c r="N13" s="13"/>
+      <c r="O13" s="12">
         <v>435</v>
       </c>
-      <c r="O3">
+      <c r="P13" s="14">
         <v>10</v>
       </c>
-      <c r="P3" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q3">
+      <c r="Q13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="13">
         <v>440</v>
       </c>
-      <c r="S3">
+      <c r="S13" s="16"/>
+      <c r="T13" s="12">
         <v>1810</v>
       </c>
-      <c r="T3">
+      <c r="U13" s="14">
         <v>945</v>
       </c>
-      <c r="U3">
+      <c r="V13" s="14">
         <v>85</v>
       </c>
-      <c r="V3">
+      <c r="W13" s="13">
         <v>2665</v>
       </c>
-      <c r="X3">
+      <c r="X13" s="16"/>
+      <c r="Y13" s="14">
         <v>700</v>
       </c>
-      <c r="Y3">
+      <c r="Z13" s="14">
         <v>35</v>
       </c>
-      <c r="Z3">
+      <c r="AA13" s="14">
         <v>10</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
+      <c r="AB13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" s="13">
         <v>2010</v>
       </c>
-      <c r="AC3">
-        <v>1.1396011396011395E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="AD13" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="AE13" s="19"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="12">
         <v>10710</v>
       </c>
-      <c r="B4">
+      <c r="C14" s="13">
         <v>11945</v>
       </c>
-      <c r="D4">
+      <c r="D14" s="13"/>
+      <c r="E14" s="12">
         <v>8790</v>
       </c>
-      <c r="E4">
+      <c r="F14" s="14">
         <v>1425</v>
       </c>
-      <c r="F4">
+      <c r="G14" s="14">
         <v>190</v>
       </c>
-      <c r="G4">
+      <c r="H14" s="13">
         <v>10025</v>
       </c>
-      <c r="I4">
+      <c r="I14" s="13"/>
+      <c r="J14" s="12">
         <v>5710</v>
       </c>
-      <c r="J4">
+      <c r="K14" s="14">
         <v>430</v>
       </c>
-      <c r="K4">
+      <c r="L14" s="14">
         <v>100</v>
       </c>
-      <c r="L4">
+      <c r="M14" s="13">
         <v>6040</v>
       </c>
-      <c r="N4">
+      <c r="N14" s="13"/>
+      <c r="O14" s="12">
         <v>475</v>
       </c>
-      <c r="O4">
+      <c r="P14" s="14">
         <v>15</v>
       </c>
-      <c r="P4" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q4">
+      <c r="Q14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="13">
         <v>490</v>
       </c>
-      <c r="S4">
+      <c r="S14" s="16"/>
+      <c r="T14" s="12">
         <v>1910</v>
       </c>
-      <c r="T4">
+      <c r="U14" s="14">
         <v>935</v>
       </c>
-      <c r="U4">
+      <c r="V14" s="14">
         <v>70</v>
       </c>
-      <c r="V4">
+      <c r="W14" s="13">
         <v>2775</v>
       </c>
-      <c r="X4">
+      <c r="X14" s="16"/>
+      <c r="Y14" s="14">
         <v>675</v>
       </c>
-      <c r="Y4">
+      <c r="Z14" s="14">
         <v>40</v>
       </c>
-      <c r="Z4">
+      <c r="AA14" s="14">
         <v>20</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
+      <c r="AB14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC14" s="13">
         <v>1920</v>
       </c>
-      <c r="AC4">
-        <v>2.2753128555176336E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="AD14" s="18">
+        <v>2E-3</v>
+      </c>
+      <c r="AE14" s="19"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="12">
         <v>10590</v>
       </c>
-      <c r="B5">
+      <c r="C15" s="13">
         <v>11785</v>
       </c>
-      <c r="D5">
+      <c r="D15" s="13"/>
+      <c r="E15" s="12">
         <v>8755</v>
       </c>
-      <c r="E5">
+      <c r="F15" s="14">
         <v>1465</v>
       </c>
-      <c r="F5">
+      <c r="G15" s="14">
         <v>270</v>
       </c>
-      <c r="G5">
+      <c r="H15" s="13">
         <v>9950</v>
       </c>
-      <c r="I5">
+      <c r="I15" s="13"/>
+      <c r="J15" s="12">
         <v>5635</v>
       </c>
-      <c r="J5">
+      <c r="K15" s="14">
         <v>480</v>
       </c>
-      <c r="K5">
+      <c r="L15" s="14">
         <v>110</v>
       </c>
-      <c r="L5">
+      <c r="M15" s="13">
         <v>6000</v>
       </c>
-      <c r="N5">
+      <c r="N15" s="13"/>
+      <c r="O15" s="12">
         <v>480</v>
       </c>
-      <c r="O5">
+      <c r="P15" s="14">
         <v>30</v>
       </c>
-      <c r="P5" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q5">
+      <c r="Q15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="13">
         <v>505</v>
       </c>
-      <c r="S5">
+      <c r="S15" s="16"/>
+      <c r="T15" s="12">
         <v>1960</v>
       </c>
-      <c r="T5">
+      <c r="U15" s="14">
         <v>920</v>
       </c>
-      <c r="U5">
+      <c r="V15" s="14">
         <v>135</v>
       </c>
-      <c r="V5">
+      <c r="W15" s="13">
         <v>2745</v>
       </c>
-      <c r="X5">
+      <c r="X15" s="16"/>
+      <c r="Y15" s="14">
         <v>655</v>
       </c>
-      <c r="Y5">
+      <c r="Z15" s="14">
         <v>40</v>
       </c>
-      <c r="Z5">
+      <c r="AA15" s="14">
         <v>25</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
+      <c r="AB15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC15" s="13">
         <v>1835</v>
       </c>
-      <c r="AC5">
-        <v>2.8555111364934323E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="AD15" s="18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE15" s="19"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12">
         <v>10970</v>
       </c>
-      <c r="B6">
+      <c r="C16" s="13">
         <v>12245</v>
       </c>
-      <c r="D6">
+      <c r="D16" s="13"/>
+      <c r="E16" s="12">
         <v>9225</v>
       </c>
-      <c r="E6">
+      <c r="F16" s="14">
         <v>1610</v>
       </c>
-      <c r="F6">
+      <c r="G16" s="14">
         <v>340</v>
       </c>
-      <c r="G6">
+      <c r="H16" s="13">
         <v>10500</v>
       </c>
-      <c r="I6">
+      <c r="I16" s="13"/>
+      <c r="J16" s="12">
         <v>5785</v>
       </c>
-      <c r="J6">
+      <c r="K16" s="14">
         <v>560</v>
       </c>
-      <c r="K6">
+      <c r="L16" s="14">
         <v>130</v>
       </c>
-      <c r="L6">
+      <c r="M16" s="13">
         <v>6215</v>
       </c>
-      <c r="N6">
+      <c r="N16" s="13"/>
+      <c r="O16" s="12">
         <v>575</v>
       </c>
-      <c r="O6">
+      <c r="P16" s="14">
         <v>40</v>
       </c>
-      <c r="P6" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q6">
+      <c r="Q16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="13">
         <v>615</v>
       </c>
-      <c r="S6">
+      <c r="S16" s="16"/>
+      <c r="T16" s="12">
         <v>2200</v>
       </c>
-      <c r="T6">
+      <c r="U16" s="14">
         <v>975</v>
       </c>
-      <c r="U6">
+      <c r="V16" s="14">
         <v>175</v>
       </c>
-      <c r="V6">
+      <c r="W16" s="13">
         <v>3000</v>
       </c>
-      <c r="X6">
+      <c r="X16" s="16"/>
+      <c r="Y16" s="14">
         <v>630</v>
       </c>
-      <c r="Y6">
+      <c r="Z16" s="14">
         <v>35</v>
       </c>
-      <c r="Z6">
+      <c r="AA16" s="14">
         <v>30</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
+      <c r="AB16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" s="13">
         <v>1745</v>
       </c>
-      <c r="AC6">
-        <v>3.2520325203252032E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="AD16" s="18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE16" s="19"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="12">
         <v>11280</v>
       </c>
-      <c r="B7">
+      <c r="C17" s="13">
         <v>12605</v>
       </c>
-      <c r="D7">
+      <c r="D17" s="13"/>
+      <c r="E17" s="12">
         <v>9625</v>
       </c>
-      <c r="E7">
+      <c r="F17" s="14">
         <v>1640</v>
       </c>
-      <c r="F7">
+      <c r="G17" s="14">
         <v>315</v>
       </c>
-      <c r="G7">
+      <c r="H17" s="13">
         <v>10950</v>
       </c>
-      <c r="I7">
+      <c r="I17" s="13"/>
+      <c r="J17" s="12">
         <v>5920</v>
       </c>
-      <c r="J7">
+      <c r="K17" s="14">
         <v>530</v>
       </c>
-      <c r="K7">
+      <c r="L17" s="14">
         <v>120</v>
       </c>
-      <c r="L7">
+      <c r="M17" s="13">
         <v>6330</v>
       </c>
-      <c r="N7">
+      <c r="N17" s="13"/>
+      <c r="O17" s="12">
         <v>590</v>
       </c>
-      <c r="O7">
+      <c r="P17" s="14">
         <v>45</v>
       </c>
-      <c r="P7" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q7">
+      <c r="Q17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="13">
         <v>630</v>
       </c>
-      <c r="S7">
+      <c r="S17" s="16"/>
+      <c r="T17" s="12">
         <v>2475</v>
       </c>
-      <c r="T7">
+      <c r="U17" s="14">
         <v>1040</v>
       </c>
-      <c r="U7">
+      <c r="V17" s="14">
         <v>160</v>
       </c>
-      <c r="V7">
+      <c r="W17" s="13">
         <v>3355</v>
       </c>
-      <c r="X7">
+      <c r="X17" s="16"/>
+      <c r="Y17" s="14">
         <v>605</v>
       </c>
-      <c r="Y7">
+      <c r="Z17" s="14">
         <v>30</v>
       </c>
-      <c r="Z7">
+      <c r="AA17" s="14">
         <v>35</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
+      <c r="AB17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC17" s="13">
         <v>1655</v>
       </c>
-      <c r="AC7">
-        <v>3.6363636363636364E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="AD17" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AE17" s="19"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="12">
         <v>10180</v>
       </c>
-      <c r="B8">
+      <c r="C18" s="13">
         <v>11335</v>
       </c>
-      <c r="D8">
+      <c r="D18" s="13"/>
+      <c r="E18" s="12">
         <v>8615</v>
       </c>
-      <c r="E8">
+      <c r="F18" s="14">
         <v>1495</v>
       </c>
-      <c r="F8">
+      <c r="G18" s="14">
         <v>340</v>
       </c>
-      <c r="G8">
+      <c r="H18" s="13">
         <v>9770</v>
       </c>
-      <c r="I8">
+      <c r="I18" s="13"/>
+      <c r="J18" s="12">
         <v>5100</v>
       </c>
-      <c r="J8">
+      <c r="K18" s="14">
         <v>460</v>
       </c>
-      <c r="K8">
+      <c r="L18" s="14">
         <v>130</v>
       </c>
-      <c r="L8">
+      <c r="M18" s="13">
         <v>5435</v>
       </c>
-      <c r="N8">
+      <c r="N18" s="13"/>
+      <c r="O18" s="12">
         <v>560</v>
       </c>
-      <c r="O8">
+      <c r="P18" s="14">
         <v>45</v>
       </c>
-      <c r="P8" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q8">
+      <c r="Q18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="13">
         <v>605</v>
       </c>
-      <c r="S8">
+      <c r="S18" s="16"/>
+      <c r="T18" s="12">
         <v>2350</v>
       </c>
-      <c r="T8">
+      <c r="U18" s="14">
         <v>960</v>
       </c>
-      <c r="U8">
+      <c r="V18" s="14">
         <v>185</v>
       </c>
-      <c r="V8">
+      <c r="W18" s="13">
         <v>3125</v>
       </c>
-      <c r="X8">
+      <c r="X18" s="16"/>
+      <c r="Y18" s="14">
         <v>580</v>
       </c>
-      <c r="Y8">
+      <c r="Z18" s="14">
         <v>25</v>
       </c>
-      <c r="Z8">
+      <c r="AA18" s="14">
         <v>25</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
+      <c r="AB18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18" s="13">
         <v>1565</v>
       </c>
-      <c r="AC8">
-        <v>2.901915264074289E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="AD18" s="18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE18" s="19"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="12">
         <v>10010</v>
       </c>
-      <c r="B9">
+      <c r="C19" s="13">
         <v>11195</v>
       </c>
-      <c r="D9">
+      <c r="D19" s="13"/>
+      <c r="E19" s="12">
         <v>8530</v>
       </c>
-      <c r="E9">
+      <c r="F19" s="14">
         <v>1495</v>
       </c>
-      <c r="F9">
+      <c r="G19" s="14">
         <v>310</v>
       </c>
-      <c r="G9">
+      <c r="H19" s="13">
         <v>9715</v>
       </c>
-      <c r="I9">
+      <c r="I19" s="13"/>
+      <c r="J19" s="12">
         <v>5160</v>
       </c>
-      <c r="J9">
+      <c r="K19" s="14">
         <v>530</v>
       </c>
-      <c r="K9">
+      <c r="L19" s="14">
         <v>115</v>
       </c>
-      <c r="L9">
+      <c r="M19" s="13">
         <v>5575</v>
       </c>
-      <c r="N9">
+      <c r="N19" s="13"/>
+      <c r="O19" s="12">
         <v>615</v>
       </c>
-      <c r="O9">
+      <c r="P19" s="14">
         <v>50</v>
       </c>
-      <c r="P9" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q9">
+      <c r="Q19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="13">
         <v>665</v>
       </c>
-      <c r="S9">
+      <c r="S19" s="16"/>
+      <c r="T19" s="12">
         <v>2165</v>
       </c>
-      <c r="T9">
+      <c r="U19" s="14">
         <v>895</v>
       </c>
-      <c r="U9">
+      <c r="V19" s="14">
         <v>165</v>
       </c>
-      <c r="V9">
+      <c r="W19" s="13">
         <v>2895</v>
       </c>
-      <c r="X9">
+      <c r="X19" s="16"/>
+      <c r="Y19" s="14">
         <v>560</v>
       </c>
-      <c r="Y9">
+      <c r="Z19" s="14">
         <v>20</v>
       </c>
-      <c r="Z9">
+      <c r="AA19" s="14">
         <v>30</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
+      <c r="AB19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC19" s="13">
         <v>1480</v>
       </c>
-      <c r="AC9">
-        <v>3.5169988276670576E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="AD19" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AE19" s="19"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="12">
         <v>10780</v>
       </c>
-      <c r="B10">
+      <c r="C20" s="13">
         <v>12125</v>
       </c>
-      <c r="D10">
+      <c r="D20" s="13"/>
+      <c r="E20" s="12">
         <v>9390</v>
       </c>
-      <c r="E10">
+      <c r="F20" s="14">
         <v>1700</v>
       </c>
-      <c r="F10">
+      <c r="G20" s="14">
         <v>355</v>
       </c>
-      <c r="G10">
+      <c r="H20" s="13">
         <v>10735</v>
       </c>
-      <c r="I10">
+      <c r="I20" s="13"/>
+      <c r="J20" s="12">
         <v>5745</v>
       </c>
-      <c r="J10">
+      <c r="K20" s="14">
         <v>635</v>
       </c>
-      <c r="K10">
+      <c r="L20" s="14">
         <v>120</v>
       </c>
-      <c r="L10">
+      <c r="M20" s="13">
         <v>6260</v>
       </c>
-      <c r="N10">
+      <c r="N20" s="13"/>
+      <c r="O20" s="12">
         <v>720</v>
       </c>
-      <c r="O10">
+      <c r="P20" s="14">
         <v>75</v>
       </c>
-      <c r="P10">
+      <c r="Q20" s="14">
         <v>5</v>
       </c>
-      <c r="Q10">
+      <c r="R20" s="13">
         <v>790</v>
       </c>
-      <c r="S10">
+      <c r="S20" s="16"/>
+      <c r="T20" s="12">
         <v>2355</v>
       </c>
-      <c r="T10">
+      <c r="U20" s="14">
         <v>970</v>
       </c>
-      <c r="U10">
+      <c r="V20" s="14">
         <v>195</v>
       </c>
-      <c r="V10">
+      <c r="W20" s="13">
         <v>3130</v>
       </c>
-      <c r="X10">
+      <c r="X20" s="16"/>
+      <c r="Y20" s="14">
         <v>535</v>
       </c>
-      <c r="Y10">
+      <c r="Z20" s="14">
         <v>20</v>
       </c>
-      <c r="Z10">
+      <c r="AA20" s="14">
         <v>35</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
+      <c r="AB20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC20" s="13">
         <v>1390</v>
       </c>
-      <c r="AC10">
-        <v>3.7273695420660278E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="AD20" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AE20" s="19"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="12">
         <v>10220</v>
       </c>
-      <c r="B11">
+      <c r="C21" s="13">
         <v>11445</v>
       </c>
-      <c r="D11">
+      <c r="D21" s="13"/>
+      <c r="E21" s="12">
         <v>8920</v>
       </c>
-      <c r="E11">
+      <c r="F21" s="14">
         <v>1680</v>
       </c>
-      <c r="F11">
+      <c r="G21" s="14">
         <v>455</v>
       </c>
-      <c r="G11">
+      <c r="H21" s="13">
         <v>10145</v>
       </c>
-      <c r="I11">
+      <c r="I21" s="13"/>
+      <c r="J21" s="12">
         <v>5080</v>
       </c>
-      <c r="J11">
+      <c r="K21" s="14">
         <v>610</v>
       </c>
-      <c r="K11">
+      <c r="L21" s="14">
         <v>135</v>
       </c>
-      <c r="L11">
+      <c r="M21" s="13">
         <v>5560</v>
       </c>
-      <c r="N11">
+      <c r="N21" s="13"/>
+      <c r="O21" s="12">
         <v>705</v>
       </c>
-      <c r="O11">
+      <c r="P21" s="14">
         <v>60</v>
       </c>
-      <c r="P11" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q11">
+      <c r="Q21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="13">
         <v>765</v>
       </c>
-      <c r="S11">
+      <c r="S21" s="16"/>
+      <c r="T21" s="12">
         <v>2575</v>
       </c>
-      <c r="T11">
+      <c r="U21" s="14">
         <v>985</v>
       </c>
-      <c r="U11">
+      <c r="V21" s="14">
         <v>275</v>
       </c>
-      <c r="V11">
+      <c r="W21" s="13">
         <v>3290</v>
       </c>
-      <c r="X11">
+      <c r="X21" s="16"/>
+      <c r="Y21" s="14">
         <v>510</v>
       </c>
-      <c r="Y11">
+      <c r="Z21" s="14">
         <v>20</v>
       </c>
-      <c r="Z11">
+      <c r="AA21" s="14">
         <v>45</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
+      <c r="AB21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC21" s="13">
         <v>1300</v>
       </c>
-      <c r="AC11">
-        <v>5.0448430493273541E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="AD21" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE21" s="19"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="12">
         <v>9965</v>
       </c>
-      <c r="B12">
+      <c r="C22" s="13">
         <v>11210</v>
       </c>
-      <c r="D12">
+      <c r="D22" s="13"/>
+      <c r="E22" s="12">
         <v>8750</v>
       </c>
-      <c r="E12">
+      <c r="F22" s="14">
         <v>1745</v>
       </c>
-      <c r="F12">
+      <c r="G22" s="14">
         <v>500</v>
       </c>
-      <c r="G12">
+      <c r="H22" s="13">
         <v>9995</v>
       </c>
-      <c r="I12">
+      <c r="I22" s="13"/>
+      <c r="J22" s="12">
         <v>4945</v>
       </c>
-      <c r="J12">
+      <c r="K22" s="14">
         <v>665</v>
       </c>
-      <c r="K12">
+      <c r="L22" s="14">
         <v>120</v>
       </c>
-      <c r="L12">
+      <c r="M22" s="13">
         <v>5485</v>
       </c>
-      <c r="N12">
+      <c r="N22" s="13"/>
+      <c r="O22" s="12">
         <v>765</v>
       </c>
-      <c r="O12">
+      <c r="P22" s="14">
         <v>60</v>
       </c>
-      <c r="P12" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q12">
+      <c r="Q22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="13">
         <v>825</v>
       </c>
-      <c r="S12">
+      <c r="S22" s="16"/>
+      <c r="T22" s="12">
         <v>2475</v>
       </c>
-      <c r="T12">
+      <c r="U22" s="14">
         <v>1000</v>
       </c>
-      <c r="U12">
+      <c r="V22" s="14">
         <v>295</v>
       </c>
-      <c r="V12">
+      <c r="W22" s="13">
         <v>3175</v>
       </c>
-      <c r="X12">
+      <c r="X22" s="16"/>
+      <c r="Y22" s="14">
         <v>490</v>
       </c>
-      <c r="Y12">
+      <c r="Z22" s="14">
         <v>20</v>
       </c>
-      <c r="Z12">
+      <c r="AA22" s="14">
         <v>85</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
+      <c r="AB22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC22" s="13">
         <v>1215</v>
       </c>
-      <c r="AC12">
-        <v>9.7142857142857135E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="AD22" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="AE22" s="19"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="12">
         <v>10165</v>
       </c>
-      <c r="B13">
+      <c r="C23" s="13">
         <v>11575</v>
       </c>
-      <c r="D13">
+      <c r="D23" s="13"/>
+      <c r="E23" s="12">
         <v>9040</v>
       </c>
-      <c r="E13">
+      <c r="F23" s="14">
         <v>1910</v>
       </c>
-      <c r="F13">
+      <c r="G23" s="14">
         <v>505</v>
       </c>
-      <c r="G13">
+      <c r="H23" s="13">
         <v>10450</v>
       </c>
-      <c r="I13">
+      <c r="I23" s="13"/>
+      <c r="J23" s="12">
         <v>5120</v>
       </c>
-      <c r="J13">
+      <c r="K23" s="14">
         <v>760</v>
       </c>
-      <c r="K13">
+      <c r="L23" s="14">
         <v>120</v>
       </c>
-      <c r="L13">
+      <c r="M23" s="13">
         <v>5765</v>
       </c>
-      <c r="N13">
+      <c r="N23" s="13"/>
+      <c r="O23" s="12">
         <v>800</v>
       </c>
-      <c r="O13">
+      <c r="P23" s="14">
         <v>75</v>
       </c>
-      <c r="P13" s="1">
-        <v>-3</v>
-      </c>
-      <c r="Q13">
+      <c r="Q23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="13">
         <v>875</v>
       </c>
-      <c r="S13">
+      <c r="S23" s="16"/>
+      <c r="T23" s="12">
         <v>2565</v>
       </c>
-      <c r="T13">
+      <c r="U23" s="14">
         <v>1055</v>
       </c>
-      <c r="U13">
+      <c r="V23" s="14">
         <v>295</v>
       </c>
-      <c r="V13">
+      <c r="W23" s="13">
         <v>3330</v>
       </c>
-      <c r="X13">
+      <c r="X23" s="16"/>
+      <c r="Y23" s="14">
         <v>465</v>
       </c>
-      <c r="Y13">
+      <c r="Z23" s="14">
         <v>20</v>
       </c>
-      <c r="Z13">
+      <c r="AA23" s="14">
         <v>90</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
+      <c r="AB23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC23" s="13">
         <v>1125</v>
       </c>
-      <c r="AC13">
-        <v>9.9557522123893804E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="AD23" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="AE23" s="19"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="12">
         <v>10630</v>
       </c>
-      <c r="B14">
+      <c r="C24" s="13">
         <v>11980</v>
       </c>
-      <c r="D14">
+      <c r="D24" s="13"/>
+      <c r="E24" s="12">
         <v>9575</v>
       </c>
-      <c r="E14">
+      <c r="F24" s="14">
         <v>1990</v>
       </c>
-      <c r="F14">
+      <c r="G24" s="14">
         <v>640</v>
       </c>
-      <c r="G14">
+      <c r="H24" s="13">
         <v>10925</v>
       </c>
-      <c r="I14">
+      <c r="I24" s="13"/>
+      <c r="J24" s="12">
         <v>5355</v>
       </c>
-      <c r="J14">
+      <c r="K24" s="14">
         <v>830</v>
       </c>
-      <c r="K14">
+      <c r="L24" s="14">
         <v>135</v>
       </c>
-      <c r="L14">
+      <c r="M24" s="13">
         <v>6050</v>
       </c>
-      <c r="N14">
+      <c r="N24" s="13"/>
+      <c r="O24" s="12">
         <v>870</v>
       </c>
-      <c r="O14">
+      <c r="P24" s="14">
         <v>80</v>
       </c>
-      <c r="P14">
+      <c r="Q24" s="14">
         <v>5</v>
       </c>
-      <c r="Q14">
+      <c r="R24" s="13">
         <v>950</v>
       </c>
-      <c r="S14">
+      <c r="S24" s="16"/>
+      <c r="T24" s="12">
         <v>2670</v>
       </c>
-      <c r="T14">
+      <c r="U24" s="14">
         <v>1060</v>
       </c>
-      <c r="U14">
+      <c r="V24" s="14">
         <v>340</v>
       </c>
-      <c r="V14">
+      <c r="W24" s="13">
         <v>3390</v>
       </c>
-      <c r="X14">
+      <c r="X24" s="16"/>
+      <c r="Y24" s="14">
         <v>515</v>
       </c>
-      <c r="Y14">
+      <c r="Z24" s="14">
         <v>20</v>
       </c>
-      <c r="Z14">
+      <c r="AA24" s="14">
         <v>165</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
+      <c r="AB24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC24" s="13">
         <v>1055</v>
       </c>
-      <c r="AC14">
-        <v>1.7232375979112272E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="AD24" s="18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AE24" s="19"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="12">
         <v>11170</v>
       </c>
-      <c r="B15">
+      <c r="C25" s="13">
         <v>12470</v>
       </c>
-      <c r="D15">
+      <c r="D25" s="13"/>
+      <c r="E25" s="12">
         <v>10185</v>
       </c>
-      <c r="E15">
+      <c r="F25" s="14">
         <v>2035</v>
       </c>
-      <c r="F15">
+      <c r="G25" s="14">
         <v>735</v>
       </c>
-      <c r="G15">
+      <c r="H25" s="13">
         <v>11485</v>
       </c>
-      <c r="I15">
+      <c r="I25" s="13"/>
+      <c r="J25" s="12">
         <v>5635</v>
       </c>
-      <c r="J15">
+      <c r="K25" s="14">
         <v>815</v>
       </c>
-      <c r="K15">
+      <c r="L25" s="14">
         <v>150</v>
       </c>
-      <c r="L15">
+      <c r="M25" s="13">
         <v>6300</v>
       </c>
-      <c r="N15">
+      <c r="N25" s="13"/>
+      <c r="O25" s="12">
         <v>960</v>
       </c>
-      <c r="O15">
+      <c r="P25" s="14">
         <v>90</v>
       </c>
-      <c r="P15">
+      <c r="Q25" s="14">
         <v>5</v>
       </c>
-      <c r="Q15">
+      <c r="R25" s="13">
         <v>1045</v>
       </c>
-      <c r="S15">
+      <c r="S25" s="16"/>
+      <c r="T25" s="12">
         <v>2865</v>
       </c>
-      <c r="T15">
+      <c r="U25" s="14">
         <v>1120</v>
       </c>
-      <c r="U15">
+      <c r="V25" s="14">
         <v>395</v>
       </c>
-      <c r="V15">
+      <c r="W25" s="13">
         <v>3585</v>
       </c>
-      <c r="X15">
+      <c r="X25" s="16"/>
+      <c r="Y25" s="14">
         <v>540</v>
       </c>
-      <c r="Y15">
+      <c r="Z25" s="14">
         <v>10</v>
       </c>
-      <c r="Z15">
+      <c r="AA25" s="14">
         <v>185</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
+      <c r="AB25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC25" s="13">
         <v>985</v>
       </c>
-      <c r="AC15">
-        <v>1.8163966617574866E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="AD25" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AE25" s="19"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="12">
         <v>11470</v>
       </c>
-      <c r="B16">
+      <c r="C26" s="13">
         <v>12840</v>
       </c>
-      <c r="D16">
+      <c r="D26" s="13"/>
+      <c r="E26" s="12">
         <v>10555</v>
       </c>
-      <c r="E16">
+      <c r="F26" s="14">
         <v>2105</v>
       </c>
-      <c r="F16">
+      <c r="G26" s="14">
         <v>740</v>
       </c>
-      <c r="G16">
+      <c r="H26" s="13">
         <v>11925</v>
       </c>
-      <c r="I16">
+      <c r="I26" s="13"/>
+      <c r="J26" s="12">
         <v>5665</v>
       </c>
-      <c r="J16">
+      <c r="K26" s="14">
         <v>815</v>
       </c>
-      <c r="K16">
+      <c r="L26" s="14">
         <v>145</v>
       </c>
-      <c r="L16">
+      <c r="M26" s="13">
         <v>6335</v>
       </c>
-      <c r="N16">
+      <c r="N26" s="13"/>
+      <c r="O26" s="12">
         <v>1030</v>
       </c>
-      <c r="O16">
+      <c r="P26" s="14">
         <v>100</v>
       </c>
-      <c r="P16">
+      <c r="Q26" s="14">
         <v>5</v>
       </c>
-      <c r="Q16">
+      <c r="R26" s="13">
         <v>1125</v>
       </c>
-      <c r="S16">
+      <c r="S26" s="16"/>
+      <c r="T26" s="12">
         <v>3095</v>
       </c>
-      <c r="T16">
+      <c r="U26" s="14">
         <v>1175</v>
       </c>
-      <c r="U16">
+      <c r="V26" s="14">
         <v>380</v>
       </c>
-      <c r="V16">
+      <c r="W26" s="13">
         <v>3890</v>
       </c>
-      <c r="X16">
+      <c r="X26" s="16"/>
+      <c r="Y26" s="14">
         <v>560</v>
       </c>
-      <c r="Y16">
+      <c r="Z26" s="14">
         <v>15</v>
       </c>
-      <c r="Z16">
+      <c r="AA26" s="14">
         <v>205</v>
       </c>
-      <c r="AA16">
+      <c r="AB26" s="14">
         <v>5</v>
       </c>
-      <c r="AB16">
+      <c r="AC26" s="13">
         <v>915</v>
       </c>
-      <c r="AC16">
-        <v>1.9895783988630979E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="AD26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="AE26" s="19"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="12">
         <v>11510</v>
       </c>
-      <c r="B17">
+      <c r="C27" s="13">
         <v>12910</v>
       </c>
-      <c r="D17">
+      <c r="D27" s="13"/>
+      <c r="E27" s="12">
         <v>10665</v>
       </c>
-      <c r="E17">
+      <c r="F27" s="14">
         <v>2230</v>
       </c>
-      <c r="F17">
+      <c r="G27" s="14">
         <v>835</v>
       </c>
-      <c r="G17">
+      <c r="H27" s="13">
         <v>12065</v>
       </c>
-      <c r="I17">
+      <c r="I27" s="13"/>
+      <c r="J27" s="12">
         <v>5630</v>
       </c>
-      <c r="J17">
+      <c r="K27" s="14">
         <v>810</v>
       </c>
-      <c r="K17">
+      <c r="L27" s="14">
         <v>160</v>
       </c>
-      <c r="L17">
+      <c r="M27" s="13">
         <v>6280</v>
       </c>
-      <c r="N17">
+      <c r="N27" s="13"/>
+      <c r="O27" s="12">
         <v>1030</v>
       </c>
-      <c r="O17">
+      <c r="P27" s="14">
         <v>115</v>
       </c>
-      <c r="P17">
+      <c r="Q27" s="14">
         <v>5</v>
       </c>
-      <c r="Q17">
+      <c r="R27" s="13">
         <v>1140</v>
       </c>
-      <c r="S17">
+      <c r="S27" s="16"/>
+      <c r="T27" s="12">
         <v>3190</v>
       </c>
-      <c r="T17">
+      <c r="U27" s="14">
         <v>1290</v>
       </c>
-      <c r="U17">
+      <c r="V27" s="14">
         <v>420</v>
       </c>
-      <c r="V17">
+      <c r="W27" s="13">
         <v>4060</v>
       </c>
-      <c r="X17">
+      <c r="X27" s="16"/>
+      <c r="Y27" s="14">
         <v>565</v>
       </c>
-      <c r="Y17">
+      <c r="Z27" s="14">
         <v>20</v>
       </c>
-      <c r="Z17">
+      <c r="AA27" s="14">
         <v>240</v>
       </c>
-      <c r="AA17">
+      <c r="AB27" s="14">
         <v>15</v>
       </c>
-      <c r="AB17">
+      <c r="AC27" s="13">
         <v>845</v>
       </c>
-      <c r="AC17">
-        <v>2.3909985935302389E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="AD27" s="18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AE27" s="19"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="12">
         <v>11215</v>
       </c>
-      <c r="B18">
+      <c r="C28" s="13">
         <v>12355</v>
       </c>
-      <c r="D18">
+      <c r="D28" s="13"/>
+      <c r="E28" s="12">
         <v>10435</v>
       </c>
-      <c r="E18">
+      <c r="F28" s="14">
         <v>2165</v>
       </c>
-      <c r="F18">
+      <c r="G28" s="14">
         <v>1020</v>
       </c>
-      <c r="G18">
+      <c r="H28" s="13">
         <v>11580</v>
       </c>
-      <c r="I18">
+      <c r="I28" s="13"/>
+      <c r="J28" s="12">
         <v>5325</v>
       </c>
-      <c r="J18">
+      <c r="K28" s="14">
         <v>800</v>
       </c>
-      <c r="K18">
+      <c r="L28" s="14">
         <v>175</v>
       </c>
-      <c r="L18">
+      <c r="M28" s="13">
         <v>5950</v>
       </c>
-      <c r="N18">
+      <c r="N28" s="13"/>
+      <c r="O28" s="12">
         <v>1030</v>
       </c>
-      <c r="O18">
+      <c r="P28" s="14">
         <v>110</v>
       </c>
-      <c r="P18">
+      <c r="Q28" s="14">
         <v>10</v>
       </c>
-      <c r="Q18">
+      <c r="R28" s="13">
         <v>1130</v>
       </c>
-      <c r="S18">
+      <c r="S28" s="16"/>
+      <c r="T28" s="12">
         <v>3190</v>
       </c>
-      <c r="T18">
+      <c r="U28" s="14">
         <v>1240</v>
       </c>
-      <c r="U18">
+      <c r="V28" s="14">
         <v>460</v>
       </c>
-      <c r="V18">
+      <c r="W28" s="13">
         <v>3970</v>
       </c>
-      <c r="X18">
+      <c r="X28" s="16"/>
+      <c r="Y28" s="14">
         <v>515</v>
       </c>
-      <c r="Y18">
+      <c r="Z28" s="14">
         <v>15</v>
       </c>
-      <c r="Z18">
+      <c r="AA28" s="14">
         <v>335</v>
       </c>
-      <c r="AA18">
+      <c r="AB28" s="14">
         <v>40</v>
       </c>
-      <c r="AB18">
+      <c r="AC28" s="13">
         <v>775</v>
       </c>
-      <c r="AC18">
-        <v>3.5936751317680884E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="AD28" s="18">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AE28" s="19"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="12">
         <v>11760</v>
       </c>
-      <c r="B19">
+      <c r="C29" s="13">
         <v>12920</v>
       </c>
-      <c r="D19">
+      <c r="D29" s="13"/>
+      <c r="E29" s="12">
         <v>11060</v>
       </c>
-      <c r="E19">
+      <c r="F29" s="14">
         <v>2400</v>
       </c>
-      <c r="F19">
+      <c r="G29" s="14">
         <v>1235</v>
       </c>
-      <c r="G19">
+      <c r="H29" s="13">
         <v>12220</v>
       </c>
-      <c r="I19">
+      <c r="I29" s="13"/>
+      <c r="J29" s="12">
         <v>5545</v>
       </c>
-      <c r="J19">
+      <c r="K29" s="14">
         <v>960</v>
       </c>
-      <c r="K19">
+      <c r="L29" s="14">
         <v>180</v>
       </c>
-      <c r="L19">
+      <c r="M29" s="13">
         <v>6325</v>
       </c>
-      <c r="N19">
+      <c r="N29" s="13"/>
+      <c r="O29" s="12">
         <v>1120</v>
       </c>
-      <c r="O19">
+      <c r="P29" s="14">
         <v>165</v>
       </c>
-      <c r="P19">
+      <c r="Q29" s="14">
         <v>10</v>
       </c>
-      <c r="Q19">
+      <c r="R29" s="13">
         <v>1275</v>
       </c>
-      <c r="S19">
+      <c r="S29" s="16"/>
+      <c r="T29" s="12">
         <v>3385</v>
       </c>
-      <c r="T19">
+      <c r="U29" s="14">
         <v>1260</v>
       </c>
-      <c r="U19">
+      <c r="V29" s="14">
         <v>525</v>
       </c>
-      <c r="V19">
+      <c r="W29" s="13">
         <v>4120</v>
       </c>
-      <c r="X19">
+      <c r="X29" s="16"/>
+      <c r="Y29" s="14">
         <v>485</v>
       </c>
-      <c r="Y19">
+      <c r="Z29" s="14">
         <v>15</v>
       </c>
-      <c r="Z19">
+      <c r="AA29" s="14">
         <v>440</v>
       </c>
-      <c r="AA19">
+      <c r="AB29" s="14">
         <v>85</v>
       </c>
-      <c r="AB19">
+      <c r="AC29" s="13">
         <v>700</v>
       </c>
-      <c r="AC19">
-        <v>4.746835443037975E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="AD29" s="18">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AE29" s="19"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="12">
         <v>11650</v>
       </c>
-      <c r="B20">
+      <c r="C30" s="13">
         <v>12870</v>
       </c>
-      <c r="D20">
+      <c r="D30" s="13"/>
+      <c r="E30" s="12">
         <v>11030</v>
       </c>
-      <c r="E20">
+      <c r="F30" s="14">
         <v>2515</v>
       </c>
-      <c r="F20">
+      <c r="G30" s="14">
         <v>1295</v>
       </c>
-      <c r="G20">
+      <c r="H30" s="13">
         <v>12250</v>
       </c>
-      <c r="I20">
+      <c r="I30" s="13"/>
+      <c r="J30" s="12">
         <v>5415</v>
       </c>
-      <c r="J20">
+      <c r="K30" s="14">
         <v>980</v>
       </c>
-      <c r="K20">
+      <c r="L30" s="14">
         <v>180</v>
       </c>
-      <c r="L20">
+      <c r="M30" s="13">
         <v>6215</v>
       </c>
-      <c r="N20">
+      <c r="N30" s="13"/>
+      <c r="O30" s="12">
         <v>1050</v>
       </c>
-      <c r="O20">
+      <c r="P30" s="14">
         <v>180</v>
       </c>
-      <c r="P20">
+      <c r="Q30" s="14">
         <v>20</v>
       </c>
-      <c r="Q20">
+      <c r="R30" s="13">
         <v>1210</v>
       </c>
-      <c r="S20">
+      <c r="S30" s="16"/>
+      <c r="T30" s="12">
         <v>3585</v>
       </c>
-      <c r="T20">
+      <c r="U30" s="14">
         <v>1340</v>
       </c>
-      <c r="U20">
+      <c r="V30" s="14">
         <v>570</v>
       </c>
-      <c r="V20">
+      <c r="W30" s="13">
         <v>4355</v>
       </c>
-      <c r="X20">
+      <c r="X30" s="16"/>
+      <c r="Y30" s="14">
         <v>455</v>
       </c>
-      <c r="Y20">
+      <c r="Z30" s="14">
         <v>15</v>
       </c>
-      <c r="Z20">
+      <c r="AA30" s="14">
         <v>410</v>
       </c>
-      <c r="AA20">
+      <c r="AB30" s="14">
         <v>120</v>
       </c>
-      <c r="AB20">
+      <c r="AC30" s="13">
         <v>620</v>
       </c>
-      <c r="AC20">
-        <v>4.805077062556664E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="AD30" s="18">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AE30" s="19"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="12">
         <v>11640</v>
       </c>
-      <c r="B21">
+      <c r="C31" s="13">
         <v>12530</v>
       </c>
-      <c r="D21">
+      <c r="D31" s="13"/>
+      <c r="E31" s="12">
         <v>11105</v>
       </c>
-      <c r="E21">
+      <c r="F31" s="14">
         <v>2430</v>
       </c>
-      <c r="F21">
+      <c r="G31" s="14">
         <v>1540</v>
       </c>
-      <c r="G21">
+      <c r="H31" s="13">
         <v>11995</v>
       </c>
-      <c r="I21">
+      <c r="I31" s="13"/>
+      <c r="J31" s="12">
         <v>5215</v>
       </c>
-      <c r="J21">
+      <c r="K31" s="14">
         <v>955</v>
       </c>
-      <c r="K21">
+      <c r="L31" s="14">
         <v>195</v>
       </c>
-      <c r="L21">
+      <c r="M31" s="13">
         <v>5970</v>
       </c>
-      <c r="N21">
+      <c r="N31" s="13"/>
+      <c r="O31" s="12">
         <v>1020</v>
       </c>
-      <c r="O21">
+      <c r="P31" s="14">
         <v>170</v>
       </c>
-      <c r="P21">
+      <c r="Q31" s="14">
         <v>15</v>
       </c>
-      <c r="Q21">
+      <c r="R31" s="13">
         <v>1170</v>
       </c>
-      <c r="S21">
+      <c r="S31" s="16"/>
+      <c r="T31" s="12">
         <v>3835</v>
       </c>
-      <c r="T21">
+      <c r="U31" s="14">
         <v>1280</v>
       </c>
-      <c r="U21">
+      <c r="V31" s="14">
         <v>720</v>
       </c>
-      <c r="V21">
+      <c r="W31" s="13">
         <v>4400</v>
       </c>
-      <c r="X21">
+      <c r="X31" s="16"/>
+      <c r="Y31" s="14">
         <v>425</v>
       </c>
-      <c r="Y21">
+      <c r="Z31" s="14">
         <v>25</v>
       </c>
-      <c r="Z21">
+      <c r="AA31" s="14">
         <v>465</v>
       </c>
-      <c r="AA21">
+      <c r="AB31" s="14">
         <v>145</v>
       </c>
-      <c r="AB21">
+      <c r="AC31" s="13">
         <v>540</v>
       </c>
-      <c r="AC21">
-        <v>5.4930211616389016E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="AD31" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AE31" s="19"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="12">
         <v>11535</v>
       </c>
-      <c r="B22">
+      <c r="C32" s="13">
         <v>12910</v>
       </c>
-      <c r="D22">
+      <c r="D32" s="13"/>
+      <c r="E32" s="12">
         <v>11035</v>
       </c>
-      <c r="E22">
+      <c r="F32" s="14">
         <v>2670</v>
       </c>
-      <c r="F22">
+      <c r="G32" s="14">
         <v>1295</v>
       </c>
-      <c r="G22">
+      <c r="H32" s="13">
         <v>12410</v>
       </c>
-      <c r="I22">
+      <c r="I32" s="13"/>
+      <c r="J32" s="12">
         <v>5390</v>
       </c>
-      <c r="J22">
+      <c r="K32" s="14">
         <v>1130</v>
       </c>
-      <c r="K22">
+      <c r="L32" s="14">
         <v>165</v>
       </c>
-      <c r="L22">
+      <c r="M32" s="13">
         <v>6355</v>
       </c>
-      <c r="N22">
+      <c r="N32" s="13"/>
+      <c r="O32" s="12">
         <v>1175</v>
       </c>
-      <c r="O22">
+      <c r="P32" s="14">
         <v>210</v>
       </c>
-      <c r="P22">
+      <c r="Q32" s="14">
         <v>15</v>
       </c>
-      <c r="Q22">
+      <c r="R32" s="13">
         <v>1365</v>
       </c>
-      <c r="S22">
+      <c r="S32" s="16"/>
+      <c r="T32" s="12">
         <v>3560</v>
       </c>
-      <c r="T22">
+      <c r="U32" s="14">
         <v>1310</v>
       </c>
-      <c r="U22">
+      <c r="V32" s="14">
         <v>620</v>
       </c>
-      <c r="V22">
+      <c r="W32" s="13">
         <v>4255</v>
       </c>
-      <c r="X22">
+      <c r="X32" s="16"/>
+      <c r="Y32" s="14">
         <v>415</v>
       </c>
-      <c r="Y22">
+      <c r="Z32" s="14">
         <v>15</v>
       </c>
-      <c r="Z22">
+      <c r="AA32" s="14">
         <v>390</v>
       </c>
-      <c r="AA22">
+      <c r="AB32" s="14">
         <v>110</v>
       </c>
-      <c r="AB22">
+      <c r="AC32" s="13">
         <v>500</v>
       </c>
-      <c r="AC22">
-        <v>4.5310376076121435E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="AD32" s="18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AE32" s="19"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="12">
         <v>11915</v>
       </c>
-      <c r="B23">
+      <c r="C33" s="13">
         <v>13435</v>
       </c>
-      <c r="D23">
+      <c r="D33" s="13"/>
+      <c r="E33" s="12">
         <v>11440</v>
       </c>
-      <c r="E23">
+      <c r="F33" s="14">
         <v>3060</v>
       </c>
-      <c r="F23">
+      <c r="G33" s="14">
         <v>1545</v>
       </c>
-      <c r="G23">
+      <c r="H33" s="13">
         <v>12960</v>
       </c>
-      <c r="I23">
+      <c r="I33" s="13"/>
+      <c r="J33" s="12">
         <v>5535</v>
       </c>
-      <c r="J23">
+      <c r="K33" s="14">
         <v>1415</v>
       </c>
-      <c r="K23">
+      <c r="L33" s="14">
         <v>215</v>
       </c>
-      <c r="L23">
+      <c r="M33" s="13">
         <v>6740</v>
       </c>
-      <c r="N23">
+      <c r="N33" s="13"/>
+      <c r="O33" s="12">
         <v>1300</v>
       </c>
-      <c r="O23">
+      <c r="P33" s="14">
         <v>270</v>
       </c>
-      <c r="P23">
+      <c r="Q33" s="14">
         <v>25</v>
       </c>
-      <c r="Q23">
+      <c r="R33" s="13">
         <v>1550</v>
       </c>
-      <c r="S23">
+      <c r="S33" s="16"/>
+      <c r="T33" s="12">
         <v>3520</v>
       </c>
-      <c r="T23">
+      <c r="U33" s="14">
         <v>1365</v>
       </c>
-      <c r="U23">
+      <c r="V33" s="14">
         <v>625</v>
       </c>
-      <c r="V23">
+      <c r="W33" s="13">
         <v>4260</v>
       </c>
-      <c r="X23">
+      <c r="X33" s="16"/>
+      <c r="Y33" s="14">
         <v>405</v>
       </c>
-      <c r="Y23">
+      <c r="Z33" s="14">
         <v>5</v>
       </c>
-      <c r="Z23">
+      <c r="AA33" s="14">
         <v>535</v>
       </c>
-      <c r="AA23">
+      <c r="AB33" s="14">
         <v>140</v>
       </c>
-      <c r="AB23">
+      <c r="AC33" s="13">
         <v>475</v>
       </c>
-      <c r="AC23">
-        <v>5.9003496503496504E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="AD33" s="18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AE33" s="19"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="12">
         <v>12430</v>
       </c>
-      <c r="B24">
+      <c r="C34" s="13">
         <v>13825</v>
       </c>
-      <c r="D24">
+      <c r="D34" s="13"/>
+      <c r="E34" s="12">
         <v>11925</v>
       </c>
-      <c r="E24">
+      <c r="F34" s="14">
         <v>3150</v>
       </c>
-      <c r="F24">
+      <c r="G34" s="14">
         <v>1755</v>
       </c>
-      <c r="G24">
+      <c r="H34" s="13">
         <v>13320</v>
       </c>
-      <c r="I24">
+      <c r="I34" s="13"/>
+      <c r="J34" s="12">
         <v>5670</v>
       </c>
-      <c r="J24">
+      <c r="K34" s="14">
         <v>1460</v>
       </c>
-      <c r="K24">
+      <c r="L34" s="14">
         <v>300</v>
       </c>
-      <c r="L24">
+      <c r="M34" s="13">
         <v>6830</v>
       </c>
-      <c r="N24">
+      <c r="N34" s="13"/>
+      <c r="O34" s="12">
         <v>1320</v>
       </c>
-      <c r="O24">
+      <c r="P34" s="14">
         <v>225</v>
       </c>
-      <c r="P24">
+      <c r="Q34" s="14">
         <v>40</v>
       </c>
-      <c r="Q24">
+      <c r="R34" s="13">
         <v>1510</v>
       </c>
-      <c r="S24">
+      <c r="S34" s="16"/>
+      <c r="T34" s="12">
         <v>3755</v>
       </c>
-      <c r="T24">
+      <c r="U34" s="14">
         <v>1460</v>
       </c>
-      <c r="U24">
+      <c r="V34" s="14">
         <v>640</v>
       </c>
-      <c r="V24">
+      <c r="W34" s="13">
         <v>4575</v>
       </c>
-      <c r="X24">
+      <c r="X34" s="16"/>
+      <c r="Y34" s="14">
         <v>405</v>
       </c>
-      <c r="Y24">
+      <c r="Z34" s="14">
         <v>5</v>
       </c>
-      <c r="Z24">
+      <c r="AA34" s="14">
         <v>575</v>
       </c>
-      <c r="AA24">
+      <c r="AB34" s="14">
         <v>200</v>
       </c>
-      <c r="AB24">
+      <c r="AC34" s="13">
         <v>505</v>
       </c>
-      <c r="AC24">
-        <v>6.4989517819706494E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="AD34" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AE34" s="19"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="12">
         <v>12075</v>
       </c>
-      <c r="B25">
+      <c r="C35" s="13">
         <v>13025</v>
       </c>
-      <c r="D25">
+      <c r="D35" s="13"/>
+      <c r="E35" s="12">
         <v>11540</v>
       </c>
-      <c r="E25">
+      <c r="F35" s="14">
         <v>2755</v>
       </c>
-      <c r="F25">
+      <c r="G35" s="14">
         <v>1805</v>
       </c>
-      <c r="G25">
+      <c r="H35" s="13">
         <v>12490</v>
       </c>
-      <c r="I25">
+      <c r="I35" s="13"/>
+      <c r="J35" s="12">
         <v>5095</v>
       </c>
-      <c r="J25">
+      <c r="K35" s="14">
         <v>1115</v>
       </c>
-      <c r="K25">
+      <c r="L35" s="14">
         <v>270</v>
       </c>
-      <c r="L25">
+      <c r="M35" s="13">
         <v>5940</v>
       </c>
-      <c r="N25">
+      <c r="N35" s="13"/>
+      <c r="O35" s="12">
         <v>1150</v>
       </c>
-      <c r="O25">
+      <c r="P35" s="14">
         <v>155</v>
       </c>
-      <c r="P25">
+      <c r="Q35" s="14">
         <v>50</v>
       </c>
-      <c r="Q25">
+      <c r="R35" s="13">
         <v>1255</v>
       </c>
-      <c r="S25">
+      <c r="S35" s="16"/>
+      <c r="T35" s="12">
         <v>4220</v>
       </c>
-      <c r="T25">
+      <c r="U35" s="14">
         <v>1470</v>
       </c>
-      <c r="U25">
+      <c r="V35" s="14">
         <v>805</v>
       </c>
-      <c r="V25">
+      <c r="W35" s="13">
         <v>4885</v>
       </c>
-      <c r="X25">
+      <c r="X35" s="16"/>
+      <c r="Y35" s="14">
         <v>395</v>
       </c>
-      <c r="Y25">
+      <c r="Z35" s="14">
         <v>15</v>
       </c>
-      <c r="Z25">
+      <c r="AA35" s="14">
         <v>455</v>
       </c>
-      <c r="AA25">
+      <c r="AB35" s="14">
         <v>230</v>
       </c>
-      <c r="AB25">
+      <c r="AC35" s="13">
         <v>535</v>
       </c>
-      <c r="AC25">
-        <v>5.9358752166377815E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="AD35" s="18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AE35" s="19"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="12">
         <v>11145</v>
       </c>
-      <c r="B26">
+      <c r="C36" s="13">
         <v>11675</v>
       </c>
-      <c r="D26">
+      <c r="D36" s="13"/>
+      <c r="E36" s="12">
         <v>10575</v>
       </c>
-      <c r="E26">
+      <c r="F36" s="14">
         <v>2215</v>
       </c>
-      <c r="F26">
+      <c r="G36" s="14">
         <v>1685</v>
       </c>
-      <c r="G26">
+      <c r="H36" s="13">
         <v>11105</v>
       </c>
-      <c r="I26">
+      <c r="I36" s="13"/>
+      <c r="J36" s="12">
         <v>4890</v>
       </c>
-      <c r="J26">
+      <c r="K36" s="14">
         <v>930</v>
       </c>
-      <c r="K26">
+      <c r="L36" s="14">
         <v>255</v>
       </c>
-      <c r="L26">
+      <c r="M36" s="13">
         <v>5565</v>
       </c>
-      <c r="N26">
+      <c r="N36" s="13"/>
+      <c r="O36" s="12">
         <v>1165</v>
       </c>
-      <c r="O26">
+      <c r="P36" s="14">
         <v>170</v>
       </c>
-      <c r="P26">
+      <c r="Q36" s="14">
         <v>70</v>
       </c>
-      <c r="Q26">
+      <c r="R36" s="13">
         <v>1265</v>
       </c>
-      <c r="S26">
+      <c r="S36" s="16"/>
+      <c r="T36" s="12">
         <v>3485</v>
       </c>
-      <c r="T26">
+      <c r="U36" s="14">
         <v>1105</v>
       </c>
-      <c r="U26">
+      <c r="V36" s="14">
         <v>715</v>
       </c>
-      <c r="V26">
+      <c r="W36" s="13">
         <v>3875</v>
       </c>
-      <c r="X26">
+      <c r="X36" s="16"/>
+      <c r="Y36" s="14">
         <v>385</v>
       </c>
-      <c r="Y26">
+      <c r="Z36" s="14">
         <v>15</v>
       </c>
-      <c r="Z26">
+      <c r="AA36" s="14">
         <v>455</v>
       </c>
-      <c r="AA26">
+      <c r="AB36" s="14">
         <v>195</v>
       </c>
-      <c r="AB26">
+      <c r="AC36" s="13">
         <v>570</v>
       </c>
-      <c r="AC26">
-        <v>6.1465721040189124E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="AD36" s="18">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AE36" s="19"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="12">
         <v>12525</v>
       </c>
-      <c r="B27">
+      <c r="C37" s="13">
         <v>13495</v>
       </c>
-      <c r="D27">
+      <c r="D37" s="13"/>
+      <c r="E37" s="12">
         <v>11920</v>
       </c>
-      <c r="E27">
+      <c r="F37" s="14">
         <v>2840</v>
       </c>
-      <c r="F27">
+      <c r="G37" s="14">
         <v>1870</v>
       </c>
-      <c r="G27">
+      <c r="H37" s="13">
         <v>12895</v>
       </c>
-      <c r="I27">
+      <c r="I37" s="13"/>
+      <c r="J37" s="12">
         <v>5585</v>
       </c>
-      <c r="J27">
+      <c r="K37" s="14">
         <v>1290</v>
       </c>
-      <c r="K27">
+      <c r="L37" s="14">
         <v>290</v>
       </c>
-      <c r="L27">
+      <c r="M37" s="13">
         <v>6585</v>
       </c>
-      <c r="N27">
+      <c r="N37" s="13"/>
+      <c r="O37" s="12">
         <v>1355</v>
       </c>
-      <c r="O27">
+      <c r="P37" s="14">
         <v>215</v>
       </c>
-      <c r="P27">
+      <c r="Q37" s="14">
         <v>65</v>
       </c>
-      <c r="Q27">
+      <c r="R37" s="13">
         <v>1500</v>
       </c>
-      <c r="S27">
+      <c r="S37" s="16"/>
+      <c r="T37" s="12">
         <v>3805</v>
       </c>
-      <c r="T27">
+      <c r="U37" s="14">
         <v>1320</v>
       </c>
-      <c r="U27">
+      <c r="V37" s="14">
         <v>710</v>
       </c>
-      <c r="V27">
+      <c r="W37" s="13">
         <v>4415</v>
       </c>
-      <c r="X27">
+      <c r="X37" s="16"/>
+      <c r="Y37" s="14">
         <v>375</v>
       </c>
-      <c r="Y27">
+      <c r="Z37" s="14">
         <v>15</v>
       </c>
-      <c r="Z27">
+      <c r="AA37" s="14">
         <v>555</v>
       </c>
-      <c r="AA27">
+      <c r="AB37" s="14">
         <v>245</v>
       </c>
-      <c r="AB27">
+      <c r="AC37" s="13">
         <v>600</v>
       </c>
-      <c r="AC27">
-        <v>6.7114093959731544E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="AD37" s="18">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AE37" s="19"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="12">
         <v>13185</v>
       </c>
-      <c r="B28">
+      <c r="C38" s="13">
         <v>14700</v>
       </c>
-      <c r="D28">
+      <c r="D38" s="13"/>
+      <c r="E38" s="12">
         <v>12185</v>
       </c>
-      <c r="E28">
+      <c r="F38" s="14">
         <v>3310</v>
       </c>
-      <c r="F28">
+      <c r="G38" s="14">
         <v>1795</v>
       </c>
-      <c r="G28">
+      <c r="H38" s="13">
         <v>13700</v>
       </c>
-      <c r="I28">
+      <c r="I38" s="13"/>
+      <c r="J38" s="12">
         <v>5950</v>
       </c>
-      <c r="J28">
+      <c r="K38" s="14">
         <v>1675</v>
       </c>
-      <c r="K28">
+      <c r="L38" s="14">
         <v>260</v>
       </c>
-      <c r="L28">
+      <c r="M38" s="13">
         <v>7365</v>
       </c>
-      <c r="N28">
+      <c r="N38" s="13"/>
+      <c r="O38" s="12">
         <v>1425</v>
       </c>
-      <c r="O28">
+      <c r="P38" s="14">
         <v>210</v>
       </c>
-      <c r="P28">
+      <c r="Q38" s="14">
         <v>35</v>
       </c>
-      <c r="Q28">
+      <c r="R38" s="13">
         <v>1600</v>
       </c>
-      <c r="S28">
+      <c r="S38" s="16"/>
+      <c r="T38" s="12">
         <v>3645</v>
       </c>
-      <c r="T28">
+      <c r="U38" s="14">
         <v>1395</v>
       </c>
-      <c r="U28">
+      <c r="V38" s="14">
         <v>725</v>
       </c>
-      <c r="V28">
+      <c r="W38" s="13">
         <v>4320</v>
       </c>
-      <c r="X28">
+      <c r="X38" s="16"/>
+      <c r="Y38" s="14">
         <v>385</v>
       </c>
-      <c r="Y28">
+      <c r="Z38" s="14">
         <v>30</v>
       </c>
-      <c r="Z28">
+      <c r="AA38" s="14">
         <v>525</v>
       </c>
-      <c r="AA28">
+      <c r="AB38" s="14">
         <v>250</v>
       </c>
-      <c r="AB28">
+      <c r="AC38" s="13">
         <v>1000</v>
       </c>
-      <c r="AC28">
-        <v>6.3602790315962249E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="AD38" s="18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AE38" s="19"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="12">
         <v>14090</v>
       </c>
-      <c r="B29">
+      <c r="C39" s="13">
         <v>16005</v>
       </c>
-      <c r="D29">
+      <c r="D39" s="13"/>
+      <c r="E39" s="12">
         <v>12565</v>
       </c>
-      <c r="E29">
+      <c r="F39" s="14">
         <v>3755</v>
       </c>
-      <c r="F29">
+      <c r="G39" s="14">
         <v>1845</v>
       </c>
-      <c r="G29">
+      <c r="H39" s="13">
         <v>14480</v>
       </c>
-      <c r="I29">
+      <c r="I39" s="13"/>
+      <c r="J39" s="12">
         <v>6155</v>
       </c>
-      <c r="J29">
+      <c r="K39" s="14">
         <v>1910</v>
       </c>
-      <c r="K29">
+      <c r="L39" s="14">
         <v>275</v>
       </c>
-      <c r="L29">
+      <c r="M39" s="13">
         <v>7790</v>
       </c>
-      <c r="N29">
+      <c r="N39" s="13"/>
+      <c r="O39" s="12">
         <v>1460</v>
       </c>
-      <c r="O29">
+      <c r="P39" s="14">
         <v>230</v>
       </c>
-      <c r="P29">
+      <c r="Q39" s="14">
         <v>40</v>
       </c>
-      <c r="Q29">
+      <c r="R39" s="13">
         <v>1650</v>
       </c>
-      <c r="S29">
+      <c r="S39" s="16"/>
+      <c r="T39" s="12">
         <v>3745</v>
       </c>
-      <c r="T29">
+      <c r="U39" s="14">
         <v>1595</v>
       </c>
-      <c r="U29">
+      <c r="V39" s="14">
         <v>720</v>
       </c>
-      <c r="V29">
+      <c r="W39" s="13">
         <v>4625</v>
       </c>
-      <c r="X29">
+      <c r="X39" s="16"/>
+      <c r="Y39" s="14">
         <v>395</v>
       </c>
-      <c r="Y29">
+      <c r="Z39" s="14">
         <v>20</v>
       </c>
-      <c r="Z29">
+      <c r="AA39" s="14">
         <v>585</v>
       </c>
-      <c r="AA29">
+      <c r="AB39" s="14">
         <v>225</v>
       </c>
-      <c r="AB29">
+      <c r="AC39" s="13">
         <v>1525</v>
       </c>
-      <c r="AC29">
-        <v>6.4464783127735778E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="AD39" s="18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AE39" s="19"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="12">
         <v>15155</v>
       </c>
-      <c r="B30">
+      <c r="C40" s="13">
         <v>16670</v>
       </c>
-      <c r="D30">
+      <c r="D40" s="13"/>
+      <c r="E40" s="12">
         <v>12950</v>
       </c>
-      <c r="E30">
+      <c r="F40" s="14">
         <v>3655</v>
       </c>
-      <c r="F30">
+      <c r="G40" s="14">
         <v>2135</v>
       </c>
-      <c r="G30">
+      <c r="H40" s="13">
         <v>14465</v>
       </c>
-      <c r="I30">
+      <c r="I40" s="13"/>
+      <c r="J40" s="12">
         <v>6115</v>
       </c>
-      <c r="J30">
+      <c r="K40" s="14">
         <v>1800</v>
       </c>
-      <c r="K30">
+      <c r="L40" s="14">
         <v>340</v>
       </c>
-      <c r="L30">
+      <c r="M40" s="13">
         <v>7580</v>
       </c>
-      <c r="N30">
+      <c r="N40" s="13"/>
+      <c r="O40" s="12">
         <v>1370</v>
       </c>
-      <c r="O30">
+      <c r="P40" s="14">
         <v>195</v>
       </c>
-      <c r="P30">
+      <c r="Q40" s="14">
         <v>45</v>
       </c>
-      <c r="Q30">
+      <c r="R40" s="13">
         <v>1520</v>
       </c>
-      <c r="S30">
+      <c r="S40" s="16"/>
+      <c r="T40" s="12">
         <v>4110</v>
       </c>
-      <c r="T30">
+      <c r="U40" s="14">
         <v>1635</v>
       </c>
-      <c r="U30">
+      <c r="V40" s="14">
         <v>805</v>
       </c>
-      <c r="V30">
+      <c r="W40" s="13">
         <v>4935</v>
       </c>
-      <c r="X30">
+      <c r="X40" s="16"/>
+      <c r="Y40" s="14">
         <v>405</v>
       </c>
-      <c r="Y30">
+      <c r="Z40" s="14">
         <v>25</v>
       </c>
-      <c r="Z30">
+      <c r="AA40" s="14">
         <v>670</v>
       </c>
-      <c r="AA30">
+      <c r="AB40" s="14">
         <v>280</v>
       </c>
-      <c r="AB30">
+      <c r="AC40" s="13">
         <v>2205</v>
       </c>
-      <c r="AC30">
-        <v>7.3359073359073365E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="AD40" s="18">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AE40" s="19"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="12">
         <v>15225</v>
       </c>
-      <c r="B31">
+      <c r="C41" s="13">
         <v>16125</v>
       </c>
-      <c r="D31">
+      <c r="D41" s="13"/>
+      <c r="E41" s="12">
         <v>12120</v>
       </c>
-      <c r="E31">
+      <c r="F41" s="14">
         <v>3250</v>
       </c>
-      <c r="F31">
+      <c r="G41" s="14">
         <v>2350</v>
       </c>
-      <c r="G31">
+      <c r="H41" s="13">
         <v>13020</v>
       </c>
-      <c r="I31">
+      <c r="I41" s="13"/>
+      <c r="J41" s="12">
         <v>5300</v>
       </c>
-      <c r="J31">
+      <c r="K41" s="14">
         <v>1540</v>
       </c>
-      <c r="K31">
+      <c r="L41" s="14">
         <v>395</v>
       </c>
-      <c r="L31">
+      <c r="M41" s="13">
         <v>6450</v>
       </c>
-      <c r="N31">
+      <c r="N41" s="13"/>
+      <c r="O41" s="12">
         <v>1175</v>
       </c>
-      <c r="O31">
+      <c r="P41" s="14">
         <v>120</v>
       </c>
-      <c r="P31">
+      <c r="Q41" s="14">
         <v>45</v>
       </c>
-      <c r="Q31">
+      <c r="R41" s="13">
         <v>1250</v>
       </c>
-      <c r="S31">
+      <c r="S41" s="16"/>
+      <c r="T41" s="12">
         <v>4390</v>
       </c>
-      <c r="T31">
+      <c r="U41" s="14">
         <v>1565</v>
       </c>
-      <c r="U31">
+      <c r="V41" s="14">
         <v>1070</v>
       </c>
-      <c r="V31">
+      <c r="W41" s="13">
         <v>4885</v>
       </c>
-      <c r="X31">
+      <c r="X41" s="16"/>
+      <c r="Y41" s="14">
         <v>415</v>
       </c>
-      <c r="Y31">
+      <c r="Z41" s="14">
         <v>25</v>
       </c>
-      <c r="Z31">
+      <c r="AA41" s="14">
         <v>560</v>
       </c>
-      <c r="AA31">
+      <c r="AB41" s="14">
         <v>275</v>
       </c>
-      <c r="AB31">
+      <c r="AC41" s="13">
         <v>3105</v>
       </c>
-      <c r="AC31">
-        <v>6.8894389438943895E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="AD41" s="18">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AE41" s="19"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="12">
         <v>14330</v>
       </c>
-      <c r="B32">
+      <c r="C42" s="13">
         <v>15405</v>
       </c>
-      <c r="D32">
+      <c r="D42" s="13"/>
+      <c r="E42" s="12">
         <v>11150</v>
       </c>
-      <c r="E32">
+      <c r="F42" s="14">
         <v>3165</v>
       </c>
-      <c r="F32">
+      <c r="G42" s="14">
         <v>2090</v>
       </c>
-      <c r="G32">
+      <c r="H42" s="13">
         <v>12225</v>
       </c>
-      <c r="I32">
+      <c r="I42" s="13"/>
+      <c r="J42" s="12">
         <v>4780</v>
       </c>
-      <c r="J32">
+      <c r="K42" s="14">
         <v>1490</v>
       </c>
-      <c r="K32">
+      <c r="L42" s="14">
         <v>380</v>
       </c>
-      <c r="L32">
+      <c r="M42" s="13">
         <v>5885</v>
       </c>
-      <c r="N32">
+      <c r="N42" s="13"/>
+      <c r="O42" s="12">
         <v>1180</v>
       </c>
-      <c r="O32">
+      <c r="P42" s="14">
         <v>140</v>
       </c>
-      <c r="P32">
+      <c r="Q42" s="14">
         <v>70</v>
       </c>
-      <c r="Q32">
+      <c r="R42" s="13">
         <v>1250</v>
       </c>
-      <c r="S32">
+      <c r="S42" s="16"/>
+      <c r="T42" s="12">
         <v>4125</v>
       </c>
-      <c r="T32">
+      <c r="U42" s="14">
         <v>1515</v>
       </c>
-      <c r="U32">
+      <c r="V42" s="14">
         <v>995</v>
       </c>
-      <c r="V32">
+      <c r="W42" s="13">
         <v>4645</v>
       </c>
-      <c r="X32">
+      <c r="X42" s="16"/>
+      <c r="Y42" s="14">
         <v>425</v>
       </c>
-      <c r="Y32">
+      <c r="Z42" s="14">
         <v>20</v>
       </c>
-      <c r="Z32">
+      <c r="AA42" s="14">
         <v>425</v>
       </c>
-      <c r="AA32">
+      <c r="AB42" s="14">
         <v>220</v>
       </c>
-      <c r="AB32">
+      <c r="AC42" s="13">
         <v>3180</v>
       </c>
-      <c r="AC32">
-        <v>5.7847533632286993E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="AD42" s="18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AE42" s="19"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="12">
         <v>14265</v>
       </c>
-      <c r="B33">
+      <c r="C43" s="13">
         <v>15285</v>
       </c>
-      <c r="D33">
+      <c r="D43" s="13"/>
+      <c r="E43" s="12">
         <v>10910</v>
       </c>
-      <c r="E33">
+      <c r="F43" s="14">
         <v>3015</v>
       </c>
-      <c r="F33">
+      <c r="G43" s="14">
         <v>1995</v>
       </c>
-      <c r="G33">
+      <c r="H43" s="13">
         <v>11930</v>
       </c>
-      <c r="I33">
+      <c r="I43" s="13"/>
+      <c r="J43" s="12">
         <v>4635</v>
       </c>
-      <c r="J33">
+      <c r="K43" s="14">
         <v>1460</v>
       </c>
-      <c r="K33">
+      <c r="L43" s="14">
         <v>320</v>
       </c>
-      <c r="L33">
+      <c r="M43" s="13">
         <v>5780</v>
       </c>
-      <c r="N33">
+      <c r="N43" s="13"/>
+      <c r="O43" s="12">
         <v>1135</v>
       </c>
-      <c r="O33">
+      <c r="P43" s="14">
         <v>115</v>
       </c>
-      <c r="P33">
+      <c r="Q43" s="14">
         <v>50</v>
       </c>
-      <c r="Q33">
+      <c r="R43" s="13">
         <v>1200</v>
       </c>
-      <c r="S33">
+      <c r="S43" s="16"/>
+      <c r="T43" s="12">
         <v>3980</v>
       </c>
-      <c r="T33">
+      <c r="U43" s="14">
         <v>1415</v>
       </c>
-      <c r="U33">
+      <c r="V43" s="14">
         <v>900</v>
       </c>
-      <c r="V33">
+      <c r="W43" s="13">
         <v>4495</v>
       </c>
-      <c r="X33">
+      <c r="X43" s="16"/>
+      <c r="Y43" s="14">
         <v>435</v>
       </c>
-      <c r="Y33">
+      <c r="Z43" s="14">
         <v>20</v>
       </c>
-      <c r="Z33">
+      <c r="AA43" s="14">
         <v>550</v>
       </c>
-      <c r="AA33">
+      <c r="AB43" s="14">
         <v>175</v>
       </c>
-      <c r="AB33">
+      <c r="AC43" s="13">
         <v>3355</v>
       </c>
-      <c r="AC33">
-        <v>6.645279560036664E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="AD43" s="18">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AE43" s="19"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="12">
         <v>15300</v>
       </c>
-      <c r="B34">
+      <c r="C44" s="13">
         <v>16900</v>
       </c>
-      <c r="D34">
+      <c r="D44" s="13"/>
+      <c r="E44" s="12">
         <v>12065</v>
       </c>
-      <c r="E34">
+      <c r="F44" s="14">
         <v>3710</v>
       </c>
-      <c r="F34">
+      <c r="G44" s="14">
         <v>2110</v>
       </c>
-      <c r="G34">
+      <c r="H44" s="13">
         <v>13665</v>
       </c>
-      <c r="I34">
+      <c r="I44" s="13"/>
+      <c r="J44" s="12">
         <v>5370</v>
       </c>
-      <c r="J34">
+      <c r="K44" s="14">
         <v>1915</v>
       </c>
-      <c r="K34">
+      <c r="L44" s="14">
         <v>360</v>
       </c>
-      <c r="L34">
+      <c r="M44" s="13">
         <v>6925</v>
       </c>
-      <c r="N34">
+      <c r="N44" s="13"/>
+      <c r="O44" s="12">
         <v>1365</v>
       </c>
-      <c r="O34">
+      <c r="P44" s="14">
         <v>160</v>
       </c>
-      <c r="P34">
+      <c r="Q44" s="14">
         <v>65</v>
       </c>
-      <c r="Q34">
+      <c r="R44" s="13">
         <v>1460</v>
       </c>
-      <c r="S34">
+      <c r="S44" s="16"/>
+      <c r="T44" s="12">
         <v>4165</v>
       </c>
-      <c r="T34">
+      <c r="U44" s="14">
         <v>1605</v>
       </c>
-      <c r="U34">
+      <c r="V44" s="14">
         <v>965</v>
       </c>
-      <c r="V34">
+      <c r="W44" s="13">
         <v>4805</v>
       </c>
-      <c r="X34">
+      <c r="X44" s="16"/>
+      <c r="Y44" s="14">
         <v>445</v>
       </c>
-      <c r="Y34">
+      <c r="Z44" s="14">
         <v>30</v>
       </c>
-      <c r="Z34">
+      <c r="AA44" s="14">
         <v>565</v>
       </c>
-      <c r="AA34">
+      <c r="AB44" s="14">
         <v>155</v>
       </c>
-      <c r="AB34">
+      <c r="AC44" s="13">
         <v>3235</v>
       </c>
-      <c r="AC34">
-        <v>5.9676750932449237E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="AD44" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="AE44" s="19"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="12">
         <v>16345</v>
       </c>
-      <c r="B35">
+      <c r="C45" s="13">
         <v>18450</v>
       </c>
-      <c r="D35">
+      <c r="D45" s="13"/>
+      <c r="E45" s="12">
         <v>12725</v>
       </c>
-      <c r="E35">
+      <c r="F45" s="14">
         <v>4165</v>
       </c>
-      <c r="F35">
+      <c r="G45" s="14">
         <v>2060</v>
       </c>
-      <c r="G35">
+      <c r="H45" s="13">
         <v>14830</v>
       </c>
-      <c r="I35">
+      <c r="I45" s="13"/>
+      <c r="J45" s="12">
         <v>5770</v>
       </c>
-      <c r="J35">
+      <c r="K45" s="14">
         <v>2130</v>
       </c>
-      <c r="K35">
+      <c r="L45" s="14">
         <v>340</v>
       </c>
-      <c r="L35">
+      <c r="M45" s="13">
         <v>7560</v>
       </c>
-      <c r="N35">
+      <c r="N45" s="13"/>
+      <c r="O45" s="12">
         <v>1400</v>
       </c>
-      <c r="O35">
+      <c r="P45" s="14">
         <v>145</v>
       </c>
-      <c r="P35">
+      <c r="Q45" s="14">
         <v>45</v>
       </c>
-      <c r="Q35">
+      <c r="R45" s="13">
         <v>1500</v>
       </c>
-      <c r="S35">
+      <c r="S45" s="16"/>
+      <c r="T45" s="12">
         <v>4355</v>
       </c>
-      <c r="T35">
+      <c r="U45" s="14">
         <v>1860</v>
       </c>
-      <c r="U35">
+      <c r="V45" s="14">
         <v>930</v>
       </c>
-      <c r="V35">
+      <c r="W45" s="13">
         <v>5290</v>
       </c>
-      <c r="X35">
+      <c r="X45" s="16"/>
+      <c r="Y45" s="14">
         <v>455</v>
       </c>
-      <c r="Y35">
+      <c r="Z45" s="14">
         <v>30</v>
       </c>
-      <c r="Z35">
+      <c r="AA45" s="14">
         <v>600</v>
       </c>
-      <c r="AA35">
+      <c r="AB45" s="14">
         <v>145</v>
       </c>
-      <c r="AB35">
+      <c r="AC45" s="13">
         <v>3620</v>
       </c>
-      <c r="AC35">
-        <v>5.854616895874263E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="AD45" s="18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AE45" s="19"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="12">
         <v>15965</v>
       </c>
-      <c r="B36">
+      <c r="C46" s="13">
         <v>18235</v>
       </c>
-      <c r="D36">
+      <c r="D46" s="13"/>
+      <c r="E46" s="12">
         <v>12515</v>
       </c>
-      <c r="E36">
+      <c r="F46" s="14">
         <v>4340</v>
       </c>
-      <c r="F36">
+      <c r="G46" s="14">
         <v>2070</v>
       </c>
-      <c r="G36">
+      <c r="H46" s="13">
         <v>14785</v>
       </c>
-      <c r="I36">
+      <c r="I46" s="13"/>
+      <c r="J46" s="12">
         <v>5665</v>
       </c>
-      <c r="J36">
+      <c r="K46" s="14">
         <v>2345</v>
       </c>
-      <c r="K36">
+      <c r="L46" s="14">
         <v>305</v>
       </c>
-      <c r="L36">
+      <c r="M46" s="13">
         <v>7700</v>
       </c>
-      <c r="N36">
+      <c r="N46" s="13"/>
+      <c r="O46" s="12">
         <v>1420</v>
       </c>
-      <c r="O36">
+      <c r="P46" s="14">
         <v>165</v>
       </c>
-      <c r="P36">
+      <c r="Q46" s="14">
         <v>40</v>
       </c>
-      <c r="Q36">
+      <c r="R46" s="13">
         <v>1550</v>
       </c>
-      <c r="S36">
+      <c r="S46" s="16"/>
+      <c r="T46" s="12">
         <v>4165</v>
       </c>
-      <c r="T36">
+      <c r="U46" s="14">
         <v>1810</v>
       </c>
-      <c r="U36">
+      <c r="V46" s="14">
         <v>920</v>
       </c>
-      <c r="V36">
+      <c r="W46" s="13">
         <v>5055</v>
       </c>
-      <c r="X36">
+      <c r="X46" s="16"/>
+      <c r="Y46" s="14">
         <v>465</v>
       </c>
-      <c r="Y36">
+      <c r="Z46" s="14">
         <v>20</v>
       </c>
-      <c r="Z36">
+      <c r="AA46" s="14">
         <v>655</v>
       </c>
-      <c r="AA36">
+      <c r="AB46" s="14">
         <v>145</v>
       </c>
-      <c r="AB36">
+      <c r="AC46" s="13">
         <v>3450</v>
       </c>
-      <c r="AC36">
-        <v>6.3923292049540545E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="AD46" s="18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AE46" s="19"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="12">
         <v>16960</v>
       </c>
-      <c r="B37">
+      <c r="C47" s="13">
         <v>19030</v>
       </c>
-      <c r="D37">
+      <c r="D47" s="13"/>
+      <c r="E47" s="12">
         <v>13845</v>
       </c>
-      <c r="E37">
+      <c r="F47" s="14">
         <v>4375</v>
       </c>
-      <c r="F37">
+      <c r="G47" s="14">
         <v>2300</v>
       </c>
-      <c r="G37">
+      <c r="H47" s="13">
         <v>15920</v>
       </c>
-      <c r="I37">
+      <c r="I47" s="13"/>
+      <c r="J47" s="12">
         <v>6545</v>
       </c>
-      <c r="J37">
+      <c r="K47" s="14">
         <v>2285</v>
       </c>
-      <c r="K37">
+      <c r="L47" s="14">
         <v>385</v>
       </c>
-      <c r="L37">
+      <c r="M47" s="13">
         <v>8445</v>
       </c>
-      <c r="N37">
+      <c r="N47" s="13"/>
+      <c r="O47" s="12">
         <v>1505</v>
       </c>
-      <c r="O37">
+      <c r="P47" s="14">
         <v>185</v>
       </c>
-      <c r="P37">
+      <c r="Q47" s="14">
         <v>65</v>
       </c>
-      <c r="Q37">
+      <c r="R47" s="13">
         <v>1625</v>
       </c>
-      <c r="S37">
+      <c r="S47" s="16"/>
+      <c r="T47" s="12">
         <v>4545</v>
       </c>
-      <c r="T37">
+      <c r="U47" s="14">
         <v>1895</v>
       </c>
-      <c r="U37">
+      <c r="V47" s="14">
         <v>1080</v>
       </c>
-      <c r="V37">
+      <c r="W47" s="13">
         <v>5360</v>
       </c>
-      <c r="X37">
+      <c r="X47" s="16"/>
+      <c r="Y47" s="14">
         <v>475</v>
       </c>
-      <c r="Y37">
+      <c r="Z47" s="14">
         <v>15</v>
       </c>
-      <c r="Z37">
+      <c r="AA47" s="14">
         <v>620</v>
       </c>
-      <c r="AA37">
+      <c r="AB47" s="14">
         <v>150</v>
       </c>
-      <c r="AB37">
+      <c r="AC47" s="13">
         <v>3115</v>
       </c>
-      <c r="AC37">
-        <v>5.5615745756590826E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="AD47" s="18">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AE47" s="19"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="20">
         <v>17610</v>
       </c>
-      <c r="B38">
+      <c r="C48" s="21">
         <v>19545</v>
       </c>
-      <c r="D38">
+      <c r="D48" s="21"/>
+      <c r="E48" s="20">
         <v>14575</v>
       </c>
-      <c r="E38">
+      <c r="F48" s="22">
         <v>4590</v>
       </c>
-      <c r="F38">
+      <c r="G48" s="22">
         <v>2655</v>
       </c>
-      <c r="G38">
+      <c r="H48" s="21">
         <v>16510</v>
       </c>
-      <c r="I38">
+      <c r="I48" s="21"/>
+      <c r="J48" s="20">
         <v>6990</v>
       </c>
-      <c r="J38">
+      <c r="K48" s="22">
         <v>2380</v>
       </c>
-      <c r="K38">
+      <c r="L48" s="22">
         <v>515</v>
       </c>
-      <c r="L38">
+      <c r="M48" s="21">
         <v>8855</v>
       </c>
-      <c r="N38">
+      <c r="N48" s="21"/>
+      <c r="O48" s="20">
         <v>1560</v>
       </c>
-      <c r="O38">
+      <c r="P48" s="22">
         <v>190</v>
       </c>
-      <c r="P38">
+      <c r="Q48" s="22">
         <v>80</v>
       </c>
-      <c r="Q38">
+      <c r="R48" s="21">
         <v>1670</v>
       </c>
-      <c r="S38">
+      <c r="S48" s="23"/>
+      <c r="T48" s="20">
         <v>4670</v>
       </c>
-      <c r="T38">
+      <c r="U48" s="22">
         <v>2000</v>
       </c>
-      <c r="U38">
+      <c r="V48" s="22">
         <v>1200</v>
       </c>
-      <c r="V38">
+      <c r="W48" s="21">
         <v>5475</v>
       </c>
-      <c r="X38">
+      <c r="X48" s="23"/>
+      <c r="Y48" s="22">
         <v>490</v>
       </c>
-      <c r="Y38">
+      <c r="Z48" s="22">
         <v>15</v>
       </c>
-      <c r="Z38">
+      <c r="AA48" s="22">
         <v>705</v>
       </c>
-      <c r="AA38">
+      <c r="AB48" s="22">
         <v>160</v>
       </c>
-      <c r="AB38">
+      <c r="AC48" s="21">
         <v>3035</v>
       </c>
-      <c r="AC38">
-        <v>5.9348198970840482E-2</v>
-      </c>
+      <c r="AD48" s="18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AE48" s="19"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A52" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E3:AB3"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="K4:L6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="P4:Q6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="Z4:AA6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="U4:V6"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="P50:AA50"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="P49:AA49"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="T4:T6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>